--- a/parameter_distributions_no_yeast.xlsx
+++ b/parameter_distributions_no_yeast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shxin\OneDrive - UTS\桌面\Bio\microalgae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81267FCD-2AB6-41F0-9E2D-1D53A45B2B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC099895-3D95-4808-9A12-36A3347F97E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2726" windowWidth="24686" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6977" yWindow="3420" windowWidth="24686" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
+  <si>
+    <t>Blank parameter</t>
+  </si>
+  <si>
+    <t>TEA</t>
+  </si>
+  <si>
+    <t>isolated</t>
+  </si>
+  <si>
+    <t>Uniform</t>
+  </si>
+  <si>
+    <t>s.microalgae.T = s.microalgae.T</t>
+  </si>
+  <si>
+    <t>$/kg</t>
+  </si>
+  <si>
+    <t>Triangular</t>
+  </si>
+  <si>
+    <t>Feedstock unit price</t>
+  </si>
+  <si>
+    <t>$/wet-kg</t>
+  </si>
+  <si>
+    <t>s.microalgae.price = x</t>
+  </si>
+  <si>
+    <t>Natural gas unit price</t>
+  </si>
+  <si>
+    <t>Electricity unit price</t>
+  </si>
+  <si>
+    <t>$/kWh</t>
+  </si>
+  <si>
+    <t>bst.PowerUtility.price = x</t>
+  </si>
+  <si>
+    <t>Sulfuric Acid unit price</t>
+  </si>
+  <si>
+    <t>s.sulfuricacid.price = x</t>
+  </si>
+  <si>
+    <t>Ammonium Hydroxide unit price</t>
+  </si>
+  <si>
+    <t>s.ammonium_hydroxide.price = x</t>
+  </si>
+  <si>
+    <t>NaOH unit price</t>
+  </si>
+  <si>
+    <t>s.naoh.price = x</t>
+  </si>
+  <si>
+    <t>Feedstock capacity</t>
+  </si>
+  <si>
+    <t>Feedstock</t>
+  </si>
+  <si>
+    <t>coupled</t>
+  </si>
+  <si>
+    <t>kg/h</t>
+  </si>
+  <si>
+    <t>s.microalgae.F_mass = x</t>
+  </si>
+  <si>
+    <t>Conversion</t>
+  </si>
+  <si>
+    <t>Boiler efficiency</t>
+  </si>
+  <si>
+    <t>Co-heat and power</t>
+  </si>
+  <si>
+    <t>u.BT601.boiler_efficiency = x</t>
+  </si>
+  <si>
+    <t>Pretreatment</t>
+  </si>
+  <si>
+    <t>Separation</t>
+  </si>
+  <si>
+    <t>u.S402.set_extraction_efficiency(x)</t>
+  </si>
+  <si>
+    <t>Extraction efficiency factor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oleyl Alcohol unit price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.fresh_oleylalcohol.price = x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6 yield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlucoAmylase unit price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.glucoamylase.price = x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlphaAmylase unit price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.alpha_amylase.price = x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plant annual operating days</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>microalgae_tea.operating_days = x</t>
+  </si>
+  <si>
+    <t>setattr(u.BT601, 'natural_gas_price', x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid loading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g/g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlucoAmylase loading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlphaAmylase loading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u.R301.set_C6_yield(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u.R204.set_alpha_amylase_loading(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u.R201.set_acid_loading(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u.R203.set_glucoamylase_loading(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Parameter name</t>
   </si>
@@ -66,168 +239,6 @@
   </si>
   <si>
     <t>Load statement</t>
-  </si>
-  <si>
-    <t>Blank parameter</t>
-  </si>
-  <si>
-    <t>TEA</t>
-  </si>
-  <si>
-    <t>isolated</t>
-  </si>
-  <si>
-    <t>Uniform</t>
-  </si>
-  <si>
-    <t>s.microalgae.T = s.microalgae.T</t>
-  </si>
-  <si>
-    <t>GlucoAmylase unit price</t>
-  </si>
-  <si>
-    <t>$/kg</t>
-  </si>
-  <si>
-    <t>Triangular</t>
-  </si>
-  <si>
-    <t>s.glucoamylase.price = x</t>
-  </si>
-  <si>
-    <t>AlphaAmylase unit price</t>
-  </si>
-  <si>
-    <t>s.alpha_amylase.price = x</t>
-  </si>
-  <si>
-    <t>Plant annual operating days</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>Feedstock unit price</t>
-  </si>
-  <si>
-    <t>$/wet-kg</t>
-  </si>
-  <si>
-    <t>s.microalgae.price = x</t>
-  </si>
-  <si>
-    <t>Natural gas unit price</t>
-  </si>
-  <si>
-    <t>setattr(u.BT601, 'natural_gas_price', x)</t>
-  </si>
-  <si>
-    <t>Electricity unit price</t>
-  </si>
-  <si>
-    <t>$/kWh</t>
-  </si>
-  <si>
-    <t>bst.PowerUtility.price = x</t>
-  </si>
-  <si>
-    <t>Sulfuric Acid unit price</t>
-  </si>
-  <si>
-    <t>s.sulfuricacid.price = x</t>
-  </si>
-  <si>
-    <t>Ammonium Hydroxide unit price</t>
-  </si>
-  <si>
-    <t>s.ammonium_hydroxide.price = x</t>
-  </si>
-  <si>
-    <t>NaOH unit price</t>
-  </si>
-  <si>
-    <t>s.naoh.price = x</t>
-  </si>
-  <si>
-    <t>Feedstock capacity</t>
-  </si>
-  <si>
-    <t>Feedstock</t>
-  </si>
-  <si>
-    <t>coupled</t>
-  </si>
-  <si>
-    <t>kg/h</t>
-  </si>
-  <si>
-    <t>s.microalgae.F_mass = x</t>
-  </si>
-  <si>
-    <t>Conversion</t>
-  </si>
-  <si>
-    <t>u.R301.set_C6_yield_factor(x)</t>
-  </si>
-  <si>
-    <t>g·L-1</t>
-  </si>
-  <si>
-    <t>u.R301.set_C6_titer(x)</t>
-  </si>
-  <si>
-    <t>Boiler efficiency</t>
-  </si>
-  <si>
-    <t>Co-heat and power</t>
-  </si>
-  <si>
-    <t>u.BT601.boiler_efficiency = x</t>
-  </si>
-  <si>
-    <t>Acid loading factor</t>
-  </si>
-  <si>
-    <t>Pretreatment</t>
-  </si>
-  <si>
-    <t>u.R201.set_acid_loading_factor(x)</t>
-  </si>
-  <si>
-    <t>Enzyme loading factor</t>
-  </si>
-  <si>
-    <t>u.R203.set_enzyme_loading_factor(x)</t>
-  </si>
-  <si>
-    <t>Separation</t>
-  </si>
-  <si>
-    <t>u.S402.set_extraction_efficiency(x)</t>
-  </si>
-  <si>
-    <t>C6 yield factor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C6 titer factor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extraction efficiency factor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oleyl Alcohol unit price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.fresh_oleylalcohol.price = x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>microalgae_tea_no_yeast.operating_days = x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -243,17 +254,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -293,7 +305,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -601,7 +613,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -612,54 +624,54 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>0.9</v>
@@ -671,27 +683,27 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>6.16</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>4.9280000000000008</v>
@@ -700,30 +712,30 @@
         <v>6.16</v>
       </c>
       <c r="I3">
-        <v>7.3919999999999986</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>6.16</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>4.9280000000000008</v>
@@ -732,30 +744,30 @@
         <v>6.16</v>
       </c>
       <c r="I4">
-        <v>7.3919999999999986</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>330</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>297</v>
@@ -767,27 +779,27 @@
         <v>363.00000000000011</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0.15</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>0.12</v>
@@ -799,27 +811,27 @@
         <v>0.18</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>0.25269999999999998</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>0.19800000000000001</v>
@@ -831,27 +843,27 @@
         <v>0.30399999999999999</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
       </c>
       <c r="E8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>6.7000000000000004E-2</v>
@@ -863,27 +875,27 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <v>0.8</v>
@@ -895,27 +907,27 @@
         <v>1.2</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0.11</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>8.8000000000000009E-2</v>
@@ -927,27 +939,27 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>0.20399999999999999</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>0.16320000000000001</v>
@@ -959,27 +971,27 @@
         <v>0.24479999999999999</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>1.01</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G12">
         <v>0.80800000000000005</v>
@@ -991,27 +1003,27 @@
         <v>1.212</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>5000</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G13">
         <f>E13*0.8</f>
@@ -1025,174 +1037,178 @@
         <v>6000</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>1.47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H14">
+        <v>1.47</v>
+      </c>
+      <c r="I14">
+        <v>1.8</v>
+      </c>
+      <c r="K14" t="s">
         <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14">
-        <v>0.8</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1.2</v>
-      </c>
-      <c r="K14" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H15">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="I15">
+        <v>2E-3</v>
+      </c>
+      <c r="K15" t="s">
         <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15">
-        <v>0.8</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1.2</v>
-      </c>
-      <c r="K15" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>0.8</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="I16">
-        <v>1.2</v>
+        <v>0.01</v>
       </c>
       <c r="K16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1.208</v>
+        <v>0.08</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <f>E17*0.8</f>
-        <v>0.96640000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="H17">
-        <v>1.208</v>
+        <v>0.08</v>
       </c>
       <c r="I17">
-        <f>E17*1.2</f>
-        <v>1.4496</v>
+        <v>0.12</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="K18" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0.9</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G19">
         <v>0.85</v>
@@ -1204,11 +1220,11 @@
         <v>0.95</v>
       </c>
       <c r="K19" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>